--- a/Code/Results/Cases/Case_5_193/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_193/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.013275979005243</v>
+        <v>0.330636746856328</v>
       </c>
       <c r="C2">
-        <v>0.2053495149299636</v>
+        <v>0.06440320679726597</v>
       </c>
       <c r="D2">
-        <v>0.05431328599919993</v>
+        <v>0.02380209259330002</v>
       </c>
       <c r="E2">
-        <v>1.395292138253282</v>
+        <v>0.4180825186005848</v>
       </c>
       <c r="F2">
-        <v>0.4605004244455131</v>
+        <v>0.6122752868145653</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.2247987601254273</v>
+        <v>0.4517866951497496</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.165593111650992</v>
+        <v>0.3611763121005538</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.577772477636695</v>
+        <v>1.189202072763623</v>
       </c>
       <c r="O2">
-        <v>1.279616624954969</v>
+        <v>2.053608104493634</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8812003838260694</v>
+        <v>0.291116090231867</v>
       </c>
       <c r="C3">
-        <v>0.180064466079557</v>
+        <v>0.05667629207825087</v>
       </c>
       <c r="D3">
-        <v>0.04862078276505599</v>
+        <v>0.02184017161696516</v>
       </c>
       <c r="E3">
-        <v>1.199493521828856</v>
+        <v>0.3648139447740135</v>
       </c>
       <c r="F3">
-        <v>0.4280140974214817</v>
+        <v>0.6089813308479037</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.2233319828224616</v>
+        <v>0.4552154285460013</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.014907234807424</v>
+        <v>0.315793928048123</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6121450486957256</v>
+        <v>1.203388477486316</v>
       </c>
       <c r="O3">
-        <v>1.218852667249507</v>
+        <v>2.05573438518465</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.800270150922529</v>
+        <v>0.2668413665207368</v>
       </c>
       <c r="C4">
-        <v>0.1645836569516632</v>
+        <v>0.05190885488246977</v>
       </c>
       <c r="D4">
-        <v>0.04510987478822415</v>
+        <v>0.02062559912396011</v>
       </c>
       <c r="E4">
-        <v>1.081272718356516</v>
+        <v>0.3321876317311023</v>
       </c>
       <c r="F4">
-        <v>0.409034572753967</v>
+        <v>0.6073720781820597</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.2230120411579186</v>
+        <v>0.4575912503754154</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.922583236924936</v>
+        <v>0.287886050283845</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6341793295643505</v>
+        <v>1.212544879463685</v>
       </c>
       <c r="O4">
-        <v>1.184620565841342</v>
+        <v>2.058376677175673</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7673181542475334</v>
+        <v>0.2569474271382717</v>
       </c>
       <c r="C5">
-        <v>0.1582824108262457</v>
+        <v>0.049960301766518</v>
       </c>
       <c r="D5">
-        <v>0.04367506860477022</v>
+        <v>0.02012818275436956</v>
       </c>
       <c r="E5">
-        <v>1.033524593189142</v>
+        <v>0.3189109501738869</v>
       </c>
       <c r="F5">
-        <v>0.4015276186441596</v>
+        <v>0.6068201013650736</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.223020298943446</v>
+        <v>0.4586273773408429</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8849930661053804</v>
+        <v>0.276502986616066</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6433856016572417</v>
+        <v>1.216388262846273</v>
       </c>
       <c r="O5">
-        <v>1.171397087122926</v>
+        <v>2.059789110565859</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7618477917936843</v>
+        <v>0.2553044507996844</v>
       </c>
       <c r="C6">
-        <v>0.1572364282139631</v>
+        <v>0.04963639728343594</v>
       </c>
       <c r="D6">
-        <v>0.04343656972665144</v>
+        <v>0.0200454390303193</v>
       </c>
       <c r="E6">
-        <v>1.025619803123448</v>
+        <v>0.3167074590422061</v>
       </c>
       <c r="F6">
-        <v>0.4002943797147722</v>
+        <v>0.6067347125572908</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.22302983550561</v>
+        <v>0.4588035278624432</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.878752737398969</v>
+        <v>0.2746122230464607</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6449278282958133</v>
+        <v>1.21703322144032</v>
       </c>
       <c r="O6">
-        <v>1.169243875919676</v>
+        <v>2.060043904841592</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7998256539478916</v>
+        <v>0.2667079400673344</v>
       </c>
       <c r="C7">
-        <v>0.1644986514197626</v>
+        <v>0.05188259940453577</v>
       </c>
       <c r="D7">
-        <v>0.04509054119552758</v>
+        <v>0.02061890074221395</v>
       </c>
       <c r="E7">
-        <v>1.080627133436053</v>
+        <v>0.3320085036036176</v>
       </c>
       <c r="F7">
-        <v>0.4089324310939517</v>
+        <v>0.6073642138654947</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.2230116006408807</v>
+        <v>0.4576049488791263</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9220761725157445</v>
+        <v>0.2877325757725941</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6343025773797617</v>
+        <v>1.212596258953303</v>
       </c>
       <c r="O7">
-        <v>1.18443934895312</v>
+        <v>2.058394367213054</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9676935719024584</v>
+        <v>0.3170121197501032</v>
       </c>
       <c r="C8">
-        <v>0.1966196328707781</v>
+        <v>0.06174376659832603</v>
       </c>
       <c r="D8">
-        <v>0.05235367913399358</v>
+        <v>0.0231277052973482</v>
       </c>
       <c r="E8">
-        <v>1.32731844501879</v>
+        <v>0.3996978156532975</v>
       </c>
       <c r="F8">
-        <v>0.449088557585263</v>
+        <v>0.61105369264709</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.2241679281502442</v>
+        <v>0.4529127206142505</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.113584880802335</v>
+        <v>0.3455376061479285</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5894271826720052</v>
+        <v>1.19400097243277</v>
       </c>
       <c r="O8">
-        <v>1.257997112922453</v>
+        <v>2.054063522378442</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.298868550901972</v>
+        <v>0.4155734735245176</v>
       </c>
       <c r="C9">
-        <v>0.2601508254205527</v>
+        <v>0.08089839570087065</v>
       </c>
       <c r="D9">
-        <v>0.06647959151750626</v>
+        <v>0.02796733855954159</v>
       </c>
       <c r="E9">
-        <v>1.830688219529975</v>
+        <v>0.5331519221147261</v>
       </c>
       <c r="F9">
-        <v>0.536275602676767</v>
+        <v>0.621573946837259</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.2313975926364193</v>
+        <v>0.4458617095770414</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.491551297080946</v>
+        <v>0.4585399660348628</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5091131706128156</v>
+        <v>1.161075244190114</v>
       </c>
       <c r="O9">
-        <v>1.428952607710954</v>
+        <v>2.05620070256208</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.544437664528203</v>
+        <v>0.487922311229255</v>
       </c>
       <c r="C10">
-        <v>0.307451362211026</v>
+        <v>0.09486110442105655</v>
       </c>
       <c r="D10">
-        <v>0.07679851356361667</v>
+        <v>0.03147285446512171</v>
       </c>
       <c r="E10">
-        <v>2.218262325143186</v>
+        <v>0.6317487387890992</v>
       </c>
       <c r="F10">
-        <v>0.6066277989741167</v>
+        <v>0.6313165380492407</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.2402639425619668</v>
+        <v>0.4419975978579913</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.772023251053923</v>
+        <v>0.5413386479538644</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4552521177455251</v>
+        <v>1.139043985527588</v>
       </c>
       <c r="O10">
-        <v>1.574278223001016</v>
+        <v>2.064287731982063</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.656899350846174</v>
+        <v>0.5208195530175317</v>
       </c>
       <c r="C11">
-        <v>0.3291783950971876</v>
+        <v>0.1011895636161455</v>
       </c>
       <c r="D11">
-        <v>0.08148286756763667</v>
+        <v>0.03305645241681532</v>
       </c>
       <c r="E11">
-        <v>2.399907953454886</v>
+        <v>0.676746716428454</v>
       </c>
       <c r="F11">
-        <v>0.640279342240035</v>
+        <v>0.6361882923576871</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.245197821864565</v>
+        <v>0.4405267024191915</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.900542699990638</v>
+        <v>0.5789558663396974</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4319773634466006</v>
+        <v>1.129490597578853</v>
       </c>
       <c r="O11">
-        <v>1.645512784976773</v>
+        <v>2.069389979268919</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.699616745100144</v>
+        <v>0.533274434928785</v>
       </c>
       <c r="C12">
-        <v>0.3374427800512194</v>
+        <v>0.1035826445485668</v>
       </c>
       <c r="D12">
-        <v>0.08325554073235963</v>
+        <v>0.03365449761152917</v>
       </c>
       <c r="E12">
-        <v>2.469599807520368</v>
+        <v>0.6938090645357846</v>
       </c>
       <c r="F12">
-        <v>0.6532847593539515</v>
+        <v>0.6380964993384737</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.2472074047419675</v>
+        <v>0.4400110636896599</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.949372758820545</v>
+        <v>0.5931932769146044</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4233504455430257</v>
+        <v>1.125940445706279</v>
       </c>
       <c r="O12">
-        <v>1.67330137192107</v>
+        <v>2.071527350385111</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.690410599030173</v>
+        <v>0.530592176211087</v>
       </c>
       <c r="C13">
-        <v>0.3356611451497145</v>
+        <v>0.1030674020149718</v>
       </c>
       <c r="D13">
-        <v>0.08287381317993692</v>
+        <v>0.03352577089775366</v>
       </c>
       <c r="E13">
-        <v>2.454547697408671</v>
+        <v>0.6901333518449206</v>
       </c>
       <c r="F13">
-        <v>0.6504717163847857</v>
+        <v>0.63768271183217</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.2467681260002621</v>
+        <v>0.4401202747286774</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.938848617759533</v>
+        <v>0.5901273329321839</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4251999291345108</v>
+        <v>1.126702030265738</v>
       </c>
       <c r="O13">
-        <v>1.667279122472337</v>
+        <v>2.071057891056029</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.660410982253666</v>
+        <v>0.5218442783456965</v>
       </c>
       <c r="C14">
-        <v>0.329857532207626</v>
+        <v>0.1013865114993564</v>
       </c>
       <c r="D14">
-        <v>0.08162872901645812</v>
+        <v>0.03310568680674919</v>
       </c>
       <c r="E14">
-        <v>2.405622516099911</v>
+        <v>0.6781499839690923</v>
       </c>
       <c r="F14">
-        <v>0.6413438955873261</v>
+        <v>0.6363440106950122</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.2453602501258345</v>
+        <v>0.440483451069138</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.904556547105216</v>
+        <v>0.5801273379195493</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4312638175155801</v>
+        <v>1.12919717086247</v>
       </c>
       <c r="O14">
-        <v>1.647782199231813</v>
+        <v>2.069561705041878</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.642053064813354</v>
+        <v>0.5164855865738502</v>
       </c>
       <c r="C15">
-        <v>0.3263076577831328</v>
+        <v>0.1003564779754811</v>
       </c>
       <c r="D15">
-        <v>0.08086593069715775</v>
+        <v>0.03284815996740065</v>
       </c>
       <c r="E15">
-        <v>2.375776918499156</v>
+        <v>0.6708128155604243</v>
       </c>
       <c r="F15">
-        <v>0.6357877920242032</v>
+        <v>0.6355322755128157</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.2445166435265413</v>
+        <v>0.4407112960116208</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.88357372670319</v>
+        <v>0.574001072957202</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4350027612220089</v>
+        <v>1.130734311310594</v>
       </c>
       <c r="O15">
-        <v>1.635948118323768</v>
+        <v>2.068671996034027</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.537105025787525</v>
+        <v>0.4857720633422105</v>
       </c>
       <c r="C16">
-        <v>0.3060362245708745</v>
+        <v>0.09444705468180814</v>
       </c>
       <c r="D16">
-        <v>0.0764922013981888</v>
+        <v>0.03136913661330709</v>
       </c>
       <c r="E16">
-        <v>2.206510259578835</v>
+        <v>0.6288110875301101</v>
       </c>
       <c r="F16">
-        <v>0.604463868270706</v>
+        <v>0.6310070190307826</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.2399606031584156</v>
+        <v>0.4420995062339941</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.763645326974171</v>
+        <v>0.5388792621645848</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4567987281332044</v>
+        <v>1.139677763028086</v>
       </c>
       <c r="O16">
-        <v>1.569732402088334</v>
+        <v>2.06398298002199</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.472930592164346</v>
+        <v>0.4669262220450321</v>
       </c>
       <c r="C17">
-        <v>0.2936586114555411</v>
+        <v>0.09081584193891956</v>
       </c>
       <c r="D17">
-        <v>0.07380670511992804</v>
+        <v>0.03045894059690113</v>
       </c>
       <c r="E17">
-        <v>2.104131303882511</v>
+        <v>0.6030828814736537</v>
       </c>
       <c r="F17">
-        <v>0.5856870809310308</v>
+        <v>0.6283436613675448</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.2374043042327258</v>
+        <v>0.4430246836351301</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.690331181611469</v>
+        <v>0.5173204619230489</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4704911638824285</v>
+        <v>1.14528441027444</v>
       </c>
       <c r="O17">
-        <v>1.530476274962524</v>
+        <v>2.0614714002987</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.436088377438097</v>
+        <v>0.4560852468404448</v>
       </c>
       <c r="C18">
-        <v>0.2865586432244669</v>
+        <v>0.08872507784583661</v>
       </c>
       <c r="D18">
-        <v>0.07226114476154066</v>
+        <v>0.02993437926851072</v>
       </c>
       <c r="E18">
-        <v>2.045738641432138</v>
+        <v>0.5882983224978489</v>
       </c>
       <c r="F18">
-        <v>0.5750406435455702</v>
+        <v>0.6268531564255539</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.2360179915231271</v>
+        <v>0.4435838203440596</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.648248619494439</v>
+        <v>0.5049158901433373</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.478481510425901</v>
+        <v>1.148553319260373</v>
       </c>
       <c r="O18">
-        <v>1.508374624776422</v>
+        <v>2.06016075025002</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.423625470960388</v>
+        <v>0.4524144626962538</v>
       </c>
       <c r="C19">
-        <v>0.2841578402594394</v>
+        <v>0.08801680631174236</v>
       </c>
       <c r="D19">
-        <v>0.07173767785229046</v>
+        <v>0.02975659417704435</v>
       </c>
       <c r="E19">
-        <v>2.026048588331832</v>
+        <v>0.5832948155519944</v>
       </c>
       <c r="F19">
-        <v>0.5714615657817319</v>
+        <v>0.6263556013268925</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.2355626961159167</v>
+        <v>0.4437777685057362</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.634014095016454</v>
+        <v>0.500715153156051</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4812063241501505</v>
+        <v>1.149667689139507</v>
       </c>
       <c r="O19">
-        <v>1.500971162001605</v>
+        <v>2.05973997423294</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.479754748958356</v>
+        <v>0.4689325368490813</v>
       </c>
       <c r="C20">
-        <v>0.2949741852051773</v>
+        <v>0.0912026172284186</v>
       </c>
       <c r="D20">
-        <v>0.0740926759270053</v>
+        <v>0.03055594048008459</v>
       </c>
       <c r="E20">
-        <v>2.114977738642935</v>
+        <v>0.6058202711046619</v>
       </c>
       <c r="F20">
-        <v>0.5876698415294968</v>
+        <v>0.6286228958501496</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.2376676508464008</v>
+        <v>0.4429234018844532</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.69812651956201</v>
+        <v>0.5196159042024817</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4690216253038475</v>
+        <v>1.144683006743454</v>
       </c>
       <c r="O20">
-        <v>1.534605210767126</v>
+        <v>2.06172489536047</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.669218861938674</v>
+        <v>0.524413822173841</v>
       </c>
       <c r="C21">
-        <v>0.3315611378382073</v>
+        <v>0.1018803214363118</v>
       </c>
       <c r="D21">
-        <v>0.08199447091980261</v>
+        <v>0.0332291201829662</v>
       </c>
       <c r="E21">
-        <v>2.419967228254151</v>
+        <v>0.6816691634749645</v>
       </c>
       <c r="F21">
-        <v>0.6440176258083596</v>
+        <v>0.6367354984828921</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.2457698458366586</v>
+        <v>0.4403756541427555</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.914624306545818</v>
+        <v>0.5830647837674121</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4294775526344274</v>
+        <v>1.128462454569897</v>
       </c>
       <c r="O21">
-        <v>1.653486191999747</v>
+        <v>2.069995595826555</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.793817883567215</v>
+        <v>0.5606587290533867</v>
       </c>
       <c r="C22">
-        <v>0.3556911169928014</v>
+        <v>0.1088391680290783</v>
       </c>
       <c r="D22">
-        <v>0.08715192525790627</v>
+        <v>0.03496668612122278</v>
       </c>
       <c r="E22">
-        <v>2.624657264565514</v>
+        <v>0.7313732378805753</v>
       </c>
       <c r="F22">
-        <v>0.6823865133419389</v>
+        <v>0.6424070401718325</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.251894501383056</v>
+        <v>0.4389516634960913</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.05708084001165</v>
+        <v>0.6244888668702515</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4047269871052261</v>
+        <v>1.118254929640381</v>
       </c>
       <c r="O22">
-        <v>1.735964825159414</v>
+        <v>2.076597662456351</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.727238252208082</v>
+        <v>0.5413157032594142</v>
       </c>
       <c r="C23">
-        <v>0.342790127498148</v>
+        <v>0.1051269072554248</v>
       </c>
       <c r="D23">
-        <v>0.08439984413605828</v>
+        <v>0.03404019661113722</v>
       </c>
       <c r="E23">
-        <v>2.514869135529182</v>
+        <v>0.7048325792938783</v>
       </c>
       <c r="F23">
-        <v>0.6617582217026978</v>
+        <v>0.6393461783937227</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.2485456159863553</v>
+        <v>0.439689579260147</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.980950821181438</v>
+        <v>0.6023841812906596</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4178331276448617</v>
+        <v>1.123666833282691</v>
       </c>
       <c r="O23">
-        <v>1.691479603830743</v>
+        <v>2.072964327735122</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.47666938575864</v>
+        <v>0.4680255013583121</v>
       </c>
       <c r="C24">
-        <v>0.2943793647019248</v>
+        <v>0.09102776587369021</v>
       </c>
       <c r="D24">
-        <v>0.0739633936270252</v>
+        <v>0.03051209080929596</v>
       </c>
       <c r="E24">
-        <v>2.110072623177501</v>
+        <v>0.6045826758208079</v>
       </c>
       <c r="F24">
-        <v>0.5867729745329413</v>
+        <v>0.6284965271862362</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.2375483331391699</v>
+        <v>0.4429691065181487</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.694602041594521</v>
+        <v>0.518578166269549</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4696856357283554</v>
+        <v>1.144954759324472</v>
       </c>
       <c r="O24">
-        <v>1.532737069309832</v>
+        <v>2.061609875080592</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.208961633325032</v>
+        <v>0.3889203981700575</v>
       </c>
       <c r="C25">
-        <v>0.2428772321791683</v>
+        <v>0.07573601649018258</v>
       </c>
       <c r="D25">
-        <v>0.06266950268251037</v>
+        <v>0.02666680388576026</v>
       </c>
       <c r="E25">
-        <v>1.691852752381081</v>
+        <v>0.4969609217057638</v>
       </c>
       <c r="F25">
-        <v>0.5116721139873732</v>
+        <v>0.6183751400647424</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.2288582941836346</v>
+        <v>0.4475384298113809</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.388914272038164</v>
+        <v>0.4280085604363819</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5299719274537953</v>
+        <v>1.169603452473941</v>
       </c>
       <c r="O25">
-        <v>1.37950626820313</v>
+        <v>2.054480762448691</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_193/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_193/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.330636746856328</v>
+        <v>1.0132759790053</v>
       </c>
       <c r="C2">
-        <v>0.06440320679726597</v>
+        <v>0.2053495149299494</v>
       </c>
       <c r="D2">
-        <v>0.02380209259330002</v>
+        <v>0.05431328599919283</v>
       </c>
       <c r="E2">
-        <v>0.4180825186005848</v>
+        <v>1.395292138253353</v>
       </c>
       <c r="F2">
-        <v>0.6122752868145653</v>
+        <v>0.4605004244455344</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0.4517866951497496</v>
+        <v>0.2247987601254415</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3611763121005538</v>
+        <v>1.16559311165102</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.189202072763623</v>
+        <v>0.5777724776367439</v>
       </c>
       <c r="O2">
-        <v>2.053608104493634</v>
+        <v>1.279616624954912</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.291116090231867</v>
+        <v>0.8812003838262115</v>
       </c>
       <c r="C3">
-        <v>0.05667629207825087</v>
+        <v>0.1800644660794717</v>
       </c>
       <c r="D3">
-        <v>0.02184017161696516</v>
+        <v>0.04862078276497783</v>
       </c>
       <c r="E3">
-        <v>0.3648139447740135</v>
+        <v>1.199493521828856</v>
       </c>
       <c r="F3">
-        <v>0.6089813308479037</v>
+        <v>0.4280140974214746</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.4552154285460013</v>
+        <v>0.2233319828224616</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.315793928048123</v>
+        <v>1.014907234807538</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.203388477486316</v>
+        <v>0.612145048695778</v>
       </c>
       <c r="O3">
-        <v>2.05573438518465</v>
+        <v>1.218852667249507</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2668413665207368</v>
+        <v>0.8002701509225574</v>
       </c>
       <c r="C4">
-        <v>0.05190885488246977</v>
+        <v>0.1645836569516632</v>
       </c>
       <c r="D4">
-        <v>0.02062559912396011</v>
+        <v>0.0451098747882952</v>
       </c>
       <c r="E4">
-        <v>0.3321876317311023</v>
+        <v>1.081272718356473</v>
       </c>
       <c r="F4">
-        <v>0.6073720781820597</v>
+        <v>0.4090345727539386</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.4575912503754154</v>
+        <v>0.2230120411579186</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.287886050283845</v>
+        <v>0.9225832369250782</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.212544879463685</v>
+        <v>0.6341793295643585</v>
       </c>
       <c r="O4">
-        <v>2.058376677175673</v>
+        <v>1.184620565841385</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2569474271382717</v>
+        <v>0.7673181542475334</v>
       </c>
       <c r="C5">
-        <v>0.049960301766518</v>
+        <v>0.1582824108262457</v>
       </c>
       <c r="D5">
-        <v>0.02012818275436956</v>
+        <v>0.0436750686050047</v>
       </c>
       <c r="E5">
-        <v>0.3189109501738869</v>
+        <v>1.033524593189142</v>
       </c>
       <c r="F5">
-        <v>0.6068201013650736</v>
+        <v>0.4015276186441596</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.4586273773408429</v>
+        <v>0.223020298943446</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.276502986616066</v>
+        <v>0.8849930661054657</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.216388262846273</v>
+        <v>0.6433856016572408</v>
       </c>
       <c r="O5">
-        <v>2.059789110565859</v>
+        <v>1.171397087122983</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2553044507996844</v>
+        <v>0.7618477917936843</v>
       </c>
       <c r="C6">
-        <v>0.04963639728343594</v>
+        <v>0.1572364282139631</v>
       </c>
       <c r="D6">
-        <v>0.0200454390303193</v>
+        <v>0.04343656972656618</v>
       </c>
       <c r="E6">
-        <v>0.3167074590422061</v>
+        <v>1.025619803123476</v>
       </c>
       <c r="F6">
-        <v>0.6067347125572908</v>
+        <v>0.4002943797147722</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.4588035278624432</v>
+        <v>0.2230298355056277</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2746122230464607</v>
+        <v>0.8787527373991395</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.21703322144032</v>
+        <v>0.6449278282958089</v>
       </c>
       <c r="O6">
-        <v>2.060043904841592</v>
+        <v>1.169243875919733</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2667079400673344</v>
+        <v>0.7998256539480053</v>
       </c>
       <c r="C7">
-        <v>0.05188259940453577</v>
+        <v>0.16449865141999</v>
       </c>
       <c r="D7">
-        <v>0.02061890074221395</v>
+        <v>0.04509054119564837</v>
       </c>
       <c r="E7">
-        <v>0.3320085036036176</v>
+        <v>1.080627133436039</v>
       </c>
       <c r="F7">
-        <v>0.6073642138654947</v>
+        <v>0.4089324310939517</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.4576049488791263</v>
+        <v>0.2230116006408771</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2877325757725941</v>
+        <v>0.9220761725157445</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.212596258953303</v>
+        <v>0.6343025773797546</v>
       </c>
       <c r="O7">
-        <v>2.058394367213054</v>
+        <v>1.18443934895312</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3170121197501032</v>
+        <v>0.9676935719024584</v>
       </c>
       <c r="C8">
-        <v>0.06174376659832603</v>
+        <v>0.1966196328704513</v>
       </c>
       <c r="D8">
-        <v>0.0231277052973482</v>
+        <v>0.05235367913397937</v>
       </c>
       <c r="E8">
-        <v>0.3996978156532975</v>
+        <v>1.327318445018761</v>
       </c>
       <c r="F8">
-        <v>0.61105369264709</v>
+        <v>0.4490885575852914</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.4529127206142505</v>
+        <v>0.2241679281502549</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3455376061479285</v>
+        <v>1.113584880802449</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.19400097243277</v>
+        <v>0.5894271826720514</v>
       </c>
       <c r="O8">
-        <v>2.054063522378442</v>
+        <v>1.257997112922453</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4155734735245176</v>
+        <v>1.298868550902</v>
       </c>
       <c r="C9">
-        <v>0.08089839570087065</v>
+        <v>0.2601508254208653</v>
       </c>
       <c r="D9">
-        <v>0.02796733855954159</v>
+        <v>0.06647959151734284</v>
       </c>
       <c r="E9">
-        <v>0.5331519221147261</v>
+        <v>1.830688219529961</v>
       </c>
       <c r="F9">
-        <v>0.621573946837259</v>
+        <v>0.536275602676767</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.4458617095770414</v>
+        <v>0.2313975926364158</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4585399660348628</v>
+        <v>1.491551297080775</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.161075244190114</v>
+        <v>0.5091131706128795</v>
       </c>
       <c r="O9">
-        <v>2.05620070256208</v>
+        <v>1.428952607710897</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.487922311229255</v>
+        <v>1.544437664528203</v>
       </c>
       <c r="C10">
-        <v>0.09486110442105655</v>
+        <v>0.307451362211026</v>
       </c>
       <c r="D10">
-        <v>0.03147285446512171</v>
+        <v>0.07679851356338929</v>
       </c>
       <c r="E10">
-        <v>0.6317487387890992</v>
+        <v>2.218262325143172</v>
       </c>
       <c r="F10">
-        <v>0.6313165380492407</v>
+        <v>0.6066277989741309</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.4419975978579913</v>
+        <v>0.2402639425619704</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5413386479538644</v>
+        <v>1.77202325105398</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.139043985527588</v>
+        <v>0.4552521177455233</v>
       </c>
       <c r="O10">
-        <v>2.064287731982063</v>
+        <v>1.574278223001073</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5208195530175317</v>
+        <v>1.656899350846317</v>
       </c>
       <c r="C11">
-        <v>0.1011895636161455</v>
+        <v>0.3291783950969602</v>
       </c>
       <c r="D11">
-        <v>0.03305645241681532</v>
+        <v>0.08148286756751588</v>
       </c>
       <c r="E11">
-        <v>0.676746716428454</v>
+        <v>2.399907953454886</v>
       </c>
       <c r="F11">
-        <v>0.6361882923576871</v>
+        <v>0.640279342240035</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.4405267024191915</v>
+        <v>0.2451978218645827</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5789558663396974</v>
+        <v>1.900542699990723</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.129490597578853</v>
+        <v>0.431977363446542</v>
       </c>
       <c r="O11">
-        <v>2.069389979268919</v>
+        <v>1.645512784976773</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.533274434928785</v>
+        <v>1.699616745100002</v>
       </c>
       <c r="C12">
-        <v>0.1035826445485668</v>
+        <v>0.337442780050992</v>
       </c>
       <c r="D12">
-        <v>0.03365449761152917</v>
+        <v>0.08325554073213226</v>
       </c>
       <c r="E12">
-        <v>0.6938090645357846</v>
+        <v>2.469599807520353</v>
       </c>
       <c r="F12">
-        <v>0.6380964993384737</v>
+        <v>0.6532847593539515</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.4400110636896599</v>
+        <v>0.2472074047419852</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5931932769146044</v>
+        <v>1.94937275882063</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.125940445706279</v>
+        <v>0.4233504455430275</v>
       </c>
       <c r="O12">
-        <v>2.071527350385111</v>
+        <v>1.673301371921127</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.530592176211087</v>
+        <v>1.690410599030173</v>
       </c>
       <c r="C13">
-        <v>0.1030674020149718</v>
+        <v>0.3356611451500271</v>
       </c>
       <c r="D13">
-        <v>0.03352577089775366</v>
+        <v>0.08287381318003639</v>
       </c>
       <c r="E13">
-        <v>0.6901333518449206</v>
+        <v>2.454547697408657</v>
       </c>
       <c r="F13">
-        <v>0.63768271183217</v>
+        <v>0.6504717163847857</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.4401202747286774</v>
+        <v>0.2467681260002443</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5901273329321839</v>
+        <v>1.938848617759589</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.126702030265738</v>
+        <v>0.4251999291345108</v>
       </c>
       <c r="O13">
-        <v>2.071057891056029</v>
+        <v>1.66727912247228</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5218442783456965</v>
+        <v>1.660410982253808</v>
       </c>
       <c r="C14">
-        <v>0.1013865114993564</v>
+        <v>0.3298575322077966</v>
       </c>
       <c r="D14">
-        <v>0.03310568680674919</v>
+        <v>0.08162872901657181</v>
       </c>
       <c r="E14">
-        <v>0.6781499839690923</v>
+        <v>2.405622516099882</v>
       </c>
       <c r="F14">
-        <v>0.6363440106950122</v>
+        <v>0.6413438955873261</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.440483451069138</v>
+        <v>0.2453602501258274</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5801273379195493</v>
+        <v>1.904556547105244</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.12919717086247</v>
+        <v>0.4312638175155712</v>
       </c>
       <c r="O14">
-        <v>2.069561705041878</v>
+        <v>1.647782199231841</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5164855865738502</v>
+        <v>1.642053064813069</v>
       </c>
       <c r="C15">
-        <v>0.1003564779754811</v>
+        <v>0.3263076577831043</v>
       </c>
       <c r="D15">
-        <v>0.03284815996740065</v>
+        <v>0.08086593069715065</v>
       </c>
       <c r="E15">
-        <v>0.6708128155604243</v>
+        <v>2.375776918499142</v>
       </c>
       <c r="F15">
-        <v>0.6355322755128157</v>
+        <v>0.6357877920242032</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.4407112960116208</v>
+        <v>0.2445166435265413</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.574001072957202</v>
+        <v>1.883573726703133</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.130734311310594</v>
+        <v>0.4350027612219929</v>
       </c>
       <c r="O15">
-        <v>2.068671996034027</v>
+        <v>1.635948118323796</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4857720633422105</v>
+        <v>1.537105025787582</v>
       </c>
       <c r="C16">
-        <v>0.09444705468180814</v>
+        <v>0.3060362245708461</v>
       </c>
       <c r="D16">
-        <v>0.03136913661330709</v>
+        <v>0.07649220139830959</v>
       </c>
       <c r="E16">
-        <v>0.6288110875301101</v>
+        <v>2.206510259578806</v>
       </c>
       <c r="F16">
-        <v>0.6310070190307826</v>
+        <v>0.604463868270706</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.4420995062339941</v>
+        <v>0.2399606031584334</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5388792621645848</v>
+        <v>1.763645326974142</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.139677763028086</v>
+        <v>0.4567987281331991</v>
       </c>
       <c r="O16">
-        <v>2.06398298002199</v>
+        <v>1.569732402088334</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4669262220450321</v>
+        <v>1.472930592164346</v>
       </c>
       <c r="C17">
-        <v>0.09081584193891956</v>
+        <v>0.2936586114550863</v>
       </c>
       <c r="D17">
-        <v>0.03045894059690113</v>
+        <v>0.07380670512004883</v>
       </c>
       <c r="E17">
-        <v>0.6030828814736537</v>
+        <v>2.104131303882539</v>
       </c>
       <c r="F17">
-        <v>0.6283436613675448</v>
+        <v>0.585687080931045</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.4430246836351301</v>
+        <v>0.2374043042327258</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5173204619230489</v>
+        <v>1.690331181611413</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.14528441027444</v>
+        <v>0.4704911638824285</v>
       </c>
       <c r="O17">
-        <v>2.0614714002987</v>
+        <v>1.530476274962467</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4560852468404448</v>
+        <v>1.436088377438097</v>
       </c>
       <c r="C18">
-        <v>0.08872507784583661</v>
+        <v>0.28655864322414</v>
       </c>
       <c r="D18">
-        <v>0.02993437926851072</v>
+        <v>0.07226114476137013</v>
       </c>
       <c r="E18">
-        <v>0.5882983224978489</v>
+        <v>2.045738641432123</v>
       </c>
       <c r="F18">
-        <v>0.6268531564255539</v>
+        <v>0.5750406435455702</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.4435838203440596</v>
+        <v>0.2360179915231129</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5049158901433373</v>
+        <v>1.648248619494467</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.148553319260373</v>
+        <v>0.4784815104258371</v>
       </c>
       <c r="O18">
-        <v>2.06016075025002</v>
+        <v>1.508374624776451</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4524144626962538</v>
+        <v>1.423625470960502</v>
       </c>
       <c r="C19">
-        <v>0.08801680631174236</v>
+        <v>0.2841578402595673</v>
       </c>
       <c r="D19">
-        <v>0.02975659417704435</v>
+        <v>0.0717376778523473</v>
       </c>
       <c r="E19">
-        <v>0.5832948155519944</v>
+        <v>2.026048588331832</v>
       </c>
       <c r="F19">
-        <v>0.6263556013268925</v>
+        <v>0.5714615657817248</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.4437777685057362</v>
+        <v>0.2355626961159274</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.500715153156051</v>
+        <v>1.634014095016482</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.149667689139507</v>
+        <v>0.4812063241501896</v>
       </c>
       <c r="O19">
-        <v>2.05973997423294</v>
+        <v>1.500971162001605</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4689325368490813</v>
+        <v>1.479754748958356</v>
       </c>
       <c r="C20">
-        <v>0.0912026172284186</v>
+        <v>0.294974185204893</v>
       </c>
       <c r="D20">
-        <v>0.03055594048008459</v>
+        <v>0.07409267592688451</v>
       </c>
       <c r="E20">
-        <v>0.6058202711046619</v>
+        <v>2.114977738642921</v>
       </c>
       <c r="F20">
-        <v>0.6286228958501496</v>
+        <v>0.5876698415294825</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.4429234018844532</v>
+        <v>0.2376676508464115</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5196159042024817</v>
+        <v>1.698126519561981</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.144683006743454</v>
+        <v>0.4690216253037818</v>
       </c>
       <c r="O20">
-        <v>2.06172489536047</v>
+        <v>1.534605210767126</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.524413822173841</v>
+        <v>1.669218861938646</v>
       </c>
       <c r="C21">
-        <v>0.1018803214363118</v>
+        <v>0.3315611378381504</v>
       </c>
       <c r="D21">
-        <v>0.0332291201829662</v>
+        <v>0.08199447091980261</v>
       </c>
       <c r="E21">
-        <v>0.6816691634749645</v>
+        <v>2.419967228254151</v>
       </c>
       <c r="F21">
-        <v>0.6367354984828921</v>
+        <v>0.6440176258083596</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.4403756541427555</v>
+        <v>0.2457698458366622</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5830647837674121</v>
+        <v>1.91462430654579</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.128462454569897</v>
+        <v>0.4294775526344257</v>
       </c>
       <c r="O21">
-        <v>2.069995595826555</v>
+        <v>1.653486191999747</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5606587290533867</v>
+        <v>1.793817883567414</v>
       </c>
       <c r="C22">
-        <v>0.1088391680290783</v>
+        <v>0.3556911169925456</v>
       </c>
       <c r="D22">
-        <v>0.03496668612122278</v>
+        <v>0.08715192525772153</v>
       </c>
       <c r="E22">
-        <v>0.7313732378805753</v>
+        <v>2.624657264565542</v>
       </c>
       <c r="F22">
-        <v>0.6424070401718325</v>
+        <v>0.6823865133419389</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.4389516634960913</v>
+        <v>0.2518945013830383</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6244888668702515</v>
+        <v>2.057080840011849</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.118254929640381</v>
+        <v>0.4047269871052777</v>
       </c>
       <c r="O22">
-        <v>2.076597662456351</v>
+        <v>1.735964825159471</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5413157032594142</v>
+        <v>1.727238252208082</v>
       </c>
       <c r="C23">
-        <v>0.1051269072554248</v>
+        <v>0.3427901274984038</v>
       </c>
       <c r="D23">
-        <v>0.03404019661113722</v>
+        <v>0.0843998441359517</v>
       </c>
       <c r="E23">
-        <v>0.7048325792938783</v>
+        <v>2.514869135529224</v>
       </c>
       <c r="F23">
-        <v>0.6393461783937227</v>
+        <v>0.6617582217026978</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.439689579260147</v>
+        <v>0.2485456159863375</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6023841812906596</v>
+        <v>1.980950821181466</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.123666833282691</v>
+        <v>0.4178331276448546</v>
       </c>
       <c r="O23">
-        <v>2.072964327735122</v>
+        <v>1.691479603830743</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4680255013583121</v>
+        <v>1.476669385758498</v>
       </c>
       <c r="C24">
-        <v>0.09102776587369021</v>
+        <v>0.2943793647019248</v>
       </c>
       <c r="D24">
-        <v>0.03051209080929596</v>
+        <v>0.07396339362713178</v>
       </c>
       <c r="E24">
-        <v>0.6045826758208079</v>
+        <v>2.110072623177544</v>
       </c>
       <c r="F24">
-        <v>0.6284965271862362</v>
+        <v>0.5867729745329555</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.4429691065181487</v>
+        <v>0.2375483331391663</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.518578166269549</v>
+        <v>1.694602041594436</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.144954759324472</v>
+        <v>0.4696856357283323</v>
       </c>
       <c r="O24">
-        <v>2.061609875080592</v>
+        <v>1.532737069309746</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3889203981700575</v>
+        <v>1.208961633325288</v>
       </c>
       <c r="C25">
-        <v>0.07573601649018258</v>
+        <v>0.2428772321797084</v>
       </c>
       <c r="D25">
-        <v>0.02666680388576026</v>
+        <v>0.06266950268296512</v>
       </c>
       <c r="E25">
-        <v>0.4969609217057638</v>
+        <v>1.691852752381067</v>
       </c>
       <c r="F25">
-        <v>0.6183751400647424</v>
+        <v>0.5116721139873874</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.4475384298113809</v>
+        <v>0.2288582941836346</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4280085604363819</v>
+        <v>1.388914272038278</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.169603452473941</v>
+        <v>0.5299719274537438</v>
       </c>
       <c r="O25">
-        <v>2.054480762448691</v>
+        <v>1.37950626820313</v>
       </c>
     </row>
   </sheetData>
